--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43522,6 +43522,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43670,6 +43670,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43707,6 +43707,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43742,6 +43742,43 @@
         <v>2800</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,41 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>347400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43814,6 +43814,41 @@
         <v>347400</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>527800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,76 @@
         <v>527800</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>511600</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>440200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43919,6 +43919,76 @@
         <v>440200</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>92900</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>95000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         <v>95000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>135000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,41 @@
         <v>135000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>110200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44059,6 +44059,41 @@
         <v>110200</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44094,6 +44094,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44129,6 +44129,76 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44199,6 +44199,43 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44236,6 +44236,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1742"/>
+  <dimension ref="A1:I1743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62578,6 +62578,41 @@
         </is>
       </c>
     </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1743" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>37400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1743"/>
+  <dimension ref="A1:I1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62613,6 +62613,41 @@
         <v>37400</v>
       </c>
     </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1744" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1744"/>
+  <dimension ref="A1:I1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62648,6 +62648,41 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1745"/>
+  <dimension ref="A1:I1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62683,6 +62683,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>41600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1746"/>
+  <dimension ref="A1:I1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62718,6 +62718,41 @@
         <v>41600</v>
       </c>
     </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1747"/>
+  <dimension ref="A1:I1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62753,6 +62753,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>63500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1748"/>
+  <dimension ref="A1:I1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62788,6 +62788,41 @@
         <v>63500</v>
       </c>
     </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1749"/>
+  <dimension ref="A1:I1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62823,6 +62823,43 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1750" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1750"/>
+  <dimension ref="A1:I1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62860,6 +62860,43 @@
         </is>
       </c>
     </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1751" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1751"/>
+  <dimension ref="A1:I1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62897,6 +62897,43 @@
         </is>
       </c>
     </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1752" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1752"/>
+  <dimension ref="A1:I1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62934,6 +62934,41 @@
         </is>
       </c>
     </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>94000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1753"/>
+  <dimension ref="A1:I1754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62969,6 +62969,41 @@
         <v>94000</v>
       </c>
     </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>98000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1754"/>
+  <dimension ref="A1:I1755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63004,6 +63004,41 @@
         <v>98000</v>
       </c>
     </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>58000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9806.xlsx
+++ b/data/9806.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1755"/>
+  <dimension ref="A1:I1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63039,6 +63039,41 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>9806</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>NATWIDE</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
